--- a/examples/Data_inputs_battery_example.xlsx
+++ b/examples/Data_inputs_battery_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ek2517/Documents/GitHub/ARIA/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA650B4-3133-8245-888C-4E7EBFAFC988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1771DBF-F76A-964D-B79E-6444E25A13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{3367ADF2-404E-8249-84D1-C6000992A6DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Input/output</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Primary aluminium</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -510,19 +513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F7873A-0819-734F-9E17-474161EBC605}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +536,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -544,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -555,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -566,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -577,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -588,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -610,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -621,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -632,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -643,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -654,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -665,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -676,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
